--- a/tool/任务.xlsx
+++ b/tool/任务.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,15 @@
     <sheet name="后台页面" sheetId="2" r:id="rId1"/>
     <sheet name="手机端接口" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台页面!$A$1:$D$51</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="123">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,14 +1107,22 @@
   </si>
   <si>
     <t>开发方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,11 +1187,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1245,7 +1256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,10 +1288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,7 +1322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1488,36 +1497,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -1525,8 +1534,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1534,8 +1543,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -1543,35 +1552,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>70</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>71</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1579,8 +1597,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>73</v>
       </c>
@@ -1588,8 +1606,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1597,8 +1615,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -1606,8 +1624,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>76</v>
       </c>
@@ -1615,160 +1633,211 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>78</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>79</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>56</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>80</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>81</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>82</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>83</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>85</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>86</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>87</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>89</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>88</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>90</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>91</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>92</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
@@ -1779,7 +1848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>104</v>
@@ -1788,7 +1857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>74</v>
@@ -1797,7 +1866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>105</v>
@@ -1806,7 +1875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>106</v>
@@ -1815,7 +1884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>107</v>
@@ -1824,7 +1893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>108</v>
@@ -1833,7 +1902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>109</v>
@@ -1842,7 +1911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>110</v>
@@ -1851,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>56</v>
@@ -1859,8 +1928,11 @@
       <c r="C39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>111</v>
@@ -1868,8 +1940,11 @@
       <c r="C40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>112</v>
@@ -1877,8 +1952,11 @@
       <c r="C41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>113</v>
@@ -1886,8 +1964,11 @@
       <c r="C42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>114</v>
@@ -1895,8 +1976,11 @@
       <c r="C43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>115</v>
@@ -1904,8 +1988,11 @@
       <c r="C44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>116</v>
@@ -1913,8 +2000,11 @@
       <c r="C45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>117</v>
@@ -1922,8 +2012,11 @@
       <c r="C46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>118</v>
@@ -1931,8 +2024,11 @@
       <c r="C47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>119</v>
@@ -1940,8 +2036,11 @@
       <c r="C48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>92</v>
@@ -1949,8 +2048,25 @@
       <c r="C49">
         <v>48</v>
       </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="F51">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="A30:A49"/>
@@ -1961,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
@@ -1976,7 +2092,7 @@
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2001,7 +2117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>94</v>
       </c>
@@ -2015,7 +2131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2027,7 +2143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -2039,7 +2155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2051,7 +2167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2063,7 +2179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -2075,7 +2191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
@@ -2089,7 +2205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2101,7 +2217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2113,7 +2229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2125,7 +2241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -2139,7 +2255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2151,7 +2267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2163,7 +2279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -2175,7 +2291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>97</v>
       </c>
@@ -2189,7 +2305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -2201,7 +2317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -2213,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -2225,7 +2341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -2237,7 +2353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
@@ -2251,7 +2367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2263,7 +2379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -2275,7 +2391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -2287,7 +2403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -2299,7 +2415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -2311,7 +2427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -2323,7 +2439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2335,7 +2451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -2349,7 +2465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -2361,7 +2477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -2373,7 +2489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -2385,7 +2501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -2397,7 +2513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -2409,7 +2525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -2421,7 +2537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -2433,7 +2549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -2445,7 +2561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -2457,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -2469,7 +2585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -2481,7 +2597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2493,7 +2609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -2505,7 +2621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -2517,7 +2633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -2529,7 +2645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2541,7 +2657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -2553,7 +2669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -2565,7 +2681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2577,7 +2693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -2589,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
@@ -2603,7 +2719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -2615,7 +2731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
         <v>100</v>
       </c>
@@ -2629,7 +2745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -2641,7 +2757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2653,7 +2769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -2665,7 +2781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2679,15 +2795,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="1:5">
+      <c r="B58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="B59" s="4" t="s">
         <v>61</v>
       </c>
@@ -2703,7 +2819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>

--- a/tool/任务.xlsx
+++ b/tool/任务.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台页面!$A$1:$D$51</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,14 +1115,18 @@
   </si>
   <si>
     <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡奇龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,9 +1292,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,6 +1327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1497,21 +1503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>66</v>
@@ -1533,8 +1539,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>67</v>
@@ -1542,8 +1551,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>68</v>
@@ -1551,8 +1563,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>69</v>
@@ -1561,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>70</v>
@@ -1576,7 +1591,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>71</v>
@@ -1588,7 +1603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>72</v>
@@ -1596,8 +1611,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>73</v>
@@ -1605,8 +1623,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>74</v>
@@ -1614,8 +1635,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>75</v>
@@ -1623,8 +1647,11 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>76</v>
@@ -1632,8 +1659,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>77</v>
@@ -1645,7 +1675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>78</v>
@@ -1657,7 +1687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>79</v>
@@ -1669,7 +1699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>56</v>
@@ -1681,7 +1711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>80</v>
@@ -1693,7 +1723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>81</v>
@@ -1705,7 +1735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>82</v>
@@ -1717,7 +1747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>83</v>
@@ -1729,7 +1759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>84</v>
@@ -1741,7 +1771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>85</v>
@@ -1753,7 +1783,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>86</v>
@@ -1765,7 +1795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>87</v>
@@ -1777,7 +1807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>89</v>
@@ -1789,7 +1819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>88</v>
@@ -1801,7 +1831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>90</v>
@@ -1813,7 +1843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>91</v>
@@ -1825,7 +1855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>92</v>
@@ -1837,7 +1867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
@@ -1847,8 +1877,11 @@
       <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>104</v>
@@ -1856,8 +1889,11 @@
       <c r="C31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>74</v>
@@ -1865,8 +1901,11 @@
       <c r="C32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>105</v>
@@ -1874,8 +1913,11 @@
       <c r="C33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>106</v>
@@ -1883,8 +1925,11 @@
       <c r="C34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>107</v>
@@ -1892,8 +1937,11 @@
       <c r="C35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>108</v>
@@ -1901,8 +1949,11 @@
       <c r="C36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>109</v>
@@ -1910,8 +1961,11 @@
       <c r="C37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>110</v>
@@ -1919,8 +1973,11 @@
       <c r="C38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>56</v>
@@ -1932,7 +1989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>111</v>
@@ -1944,7 +2001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>112</v>
@@ -1956,7 +2013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>113</v>
@@ -1968,7 +2025,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>114</v>
@@ -1980,7 +2037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>115</v>
@@ -1992,7 +2049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>116</v>
@@ -2004,7 +2061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>117</v>
@@ -2016,7 +2073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>118</v>
@@ -2028,7 +2085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>119</v>
@@ -2040,7 +2097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>92</v>
@@ -2052,15 +2109,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>122</v>
       </c>
       <c r="F50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F51">
         <v>18</v>
       </c>
@@ -2077,14 +2134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
@@ -2092,7 +2149,7 @@
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2117,7 +2174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>94</v>
       </c>
@@ -2131,7 +2188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2143,7 +2200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -2155,7 +2212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2167,7 +2224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2179,7 +2236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -2191,7 +2248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
@@ -2205,7 +2262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2217,7 +2274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2229,7 +2286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2241,7 +2298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2267,7 +2324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2279,7 +2336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -2291,7 +2348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>97</v>
       </c>
@@ -2305,7 +2362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -2317,7 +2374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -2329,7 +2386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -2341,7 +2398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -2353,7 +2410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
@@ -2367,7 +2424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2379,7 +2436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -2391,7 +2448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -2403,7 +2460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -2415,7 +2472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -2427,7 +2484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -2439,7 +2496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2451,7 +2508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -2465,7 +2522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -2477,7 +2534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -2489,7 +2546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -2501,7 +2558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -2513,7 +2570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -2525,7 +2582,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -2537,7 +2594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -2549,7 +2606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -2561,7 +2618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -2573,7 +2630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -2585,7 +2642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -2597,7 +2654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2609,7 +2666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -2621,7 +2678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -2633,7 +2690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -2645,7 +2702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2657,7 +2714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -2669,7 +2726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -2681,7 +2738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2693,7 +2750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -2705,7 +2762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
@@ -2719,7 +2776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -2731,7 +2788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>100</v>
       </c>
@@ -2745,7 +2802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -2757,7 +2814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2769,7 +2826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -2781,7 +2838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2795,7 +2852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>62</v>
       </c>
@@ -2803,7 +2860,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>61</v>
       </c>
@@ -2819,7 +2876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
